--- a/data/data_table_info.xlsx
+++ b/data/data_table_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kipol\Documents\capture_radius\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E8382C-2EA7-484A-8039-A4B63D1106D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729863EA-6EF9-4C96-9341-7BE5CB957AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13" yWindow="13" windowWidth="20787" windowHeight="13134" xr2:uid="{4481B7E0-0563-41D9-886F-284062E32AF9}"/>
   </bookViews>
@@ -681,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FE284E-A531-4310-B12E-26938333D518}">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
+    <sheetView tabSelected="1" topLeftCell="H14" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -782,12 +782,12 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="L2">
-        <f>SQRT(1.5)*20*SQRT(H2)</f>
-        <v>71.414284285428508</v>
+        <f>SQRT(1.5)*50*SQRT(H2)</f>
+        <v>178.53571071357123</v>
       </c>
       <c r="M2">
-        <f>SQRT(1.5)*20*SQRT(K2)</f>
-        <v>70.142711667000725</v>
+        <f>SQRT(1.5)*50*SQRT(K2)</f>
+        <v>175.3567791675018</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.5">
@@ -810,7 +810,7 @@
         <v>200</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G42" si="0">1000/F3</f>
+        <f t="shared" ref="G3:G34" si="0">1000/F3</f>
         <v>5</v>
       </c>
       <c r="H3">
@@ -820,19 +820,19 @@
         <v>160</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J40" si="1">1000/I3</f>
+        <f t="shared" ref="J3:J34" si="1">1000/I3</f>
         <v>6.25</v>
       </c>
       <c r="K3">
         <v>7.2</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L40" si="2">SQRT(1.5)*20*SQRT(H3)</f>
-        <v>73.484692283495349</v>
+        <f t="shared" ref="L3:L34" si="2">SQRT(1.5)*50*SQRT(H3)</f>
+        <v>183.71173070873834</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M40" si="3">SQRT(1.5)*20*SQRT(K3)</f>
-        <v>65.726706900619931</v>
+        <f t="shared" ref="M3:M34" si="3">SQRT(1.5)*50*SQRT(K3)</f>
+        <v>164.31676725154983</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.5">
@@ -873,11 +873,11 @@
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>71.414284285428508</v>
+        <v>178.53571071357123</v>
       </c>
       <c r="M4">
         <f t="shared" si="3"/>
-        <v>67.527772064536521</v>
+        <v>168.8194301613413</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.5">
@@ -918,11 +918,11 @@
       </c>
       <c r="L5">
         <f t="shared" si="2"/>
-        <v>77.846001824114254</v>
+        <v>194.61500456028563</v>
       </c>
       <c r="M5">
         <f t="shared" si="3"/>
-        <v>73.484692283495349</v>
+        <v>183.71173070873834</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.5">
@@ -963,11 +963,11 @@
       </c>
       <c r="L6">
         <f t="shared" si="2"/>
-        <v>67.970581871865718</v>
+        <v>169.92645467966429</v>
       </c>
       <c r="M6">
         <f t="shared" si="3"/>
-        <v>66.18156843109719</v>
+        <v>165.45392107774296</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.5">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="L7">
         <f t="shared" si="2"/>
-        <v>70.992957397195397</v>
+        <v>177.48239349298848</v>
       </c>
       <c r="M7">
         <f t="shared" si="3"/>
-        <v>71.833139984271881</v>
+        <v>179.58284996067971</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.5">
@@ -1053,11 +1053,11 @@
       </c>
       <c r="L8">
         <f t="shared" si="2"/>
-        <v>59.497899122574061</v>
+        <v>148.74474780643516</v>
       </c>
       <c r="M8">
         <f t="shared" si="3"/>
-        <v>58.480766068853782</v>
+        <v>146.20191517213445</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.5">
@@ -1098,11 +1098,11 @@
       </c>
       <c r="L9">
         <f t="shared" si="2"/>
-        <v>58.991524815010507</v>
+        <v>147.47881203752627</v>
       </c>
       <c r="M9">
         <f t="shared" si="3"/>
-        <v>57.445626465380286</v>
+        <v>143.6140661634507</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.5">
@@ -1143,11 +1143,11 @@
       </c>
       <c r="L10">
         <f t="shared" si="2"/>
-        <v>54.772255750516614</v>
+        <v>136.93063937629154</v>
       </c>
       <c r="M10">
         <f t="shared" si="3"/>
-        <v>58.991524815010507</v>
+        <v>147.47881203752627</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.5">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="L11">
         <f t="shared" si="2"/>
-        <v>57.965506984757752</v>
+        <v>144.91376746189437</v>
       </c>
       <c r="M11">
         <f t="shared" si="3"/>
-        <v>60.49793384901669</v>
+        <v>151.24483462254173</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.5">
@@ -1233,11 +1233,11 @@
       </c>
       <c r="L12">
         <f t="shared" si="2"/>
-        <v>70.992957397195397</v>
+        <v>177.48239349298848</v>
       </c>
       <c r="M12">
         <f t="shared" si="3"/>
-        <v>67.082039324993687</v>
+        <v>167.70509831248421</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.5">
@@ -1278,11 +1278,11 @@
       </c>
       <c r="L13">
         <f t="shared" si="2"/>
-        <v>69.282032302755098</v>
+        <v>173.20508075688772</v>
       </c>
       <c r="M13">
         <f t="shared" si="3"/>
-        <v>69.282032302755098</v>
+        <v>173.20508075688772</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.5">
@@ -1323,11 +1323,11 @@
       </c>
       <c r="L14">
         <f t="shared" si="2"/>
-        <v>73.484692283495349</v>
+        <v>183.71173070873834</v>
       </c>
       <c r="M14">
         <f t="shared" si="3"/>
-        <v>69.713700231733512</v>
+        <v>174.28425057933376</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.5">
@@ -1368,11 +1368,56 @@
       </c>
       <c r="L15">
         <f t="shared" si="2"/>
-        <v>74.699397587932395</v>
+        <v>186.74849396983097</v>
       </c>
       <c r="M15">
         <f t="shared" si="3"/>
-        <v>68.847657912234027</v>
+        <v>172.11914478058506</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16">
+        <v>140</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="H16">
+        <v>3.2</v>
+      </c>
+      <c r="I16">
+        <v>150</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="1"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="K16">
+        <v>3.2</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>109.54451150103321</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>109.54451150103321</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.5">
@@ -1380,7 +1425,7 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
         <v>41</v>
@@ -1389,7 +1434,7 @@
         <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17">
         <v>140</v>
@@ -1399,25 +1444,25 @@
         <v>7.1428571428571432</v>
       </c>
       <c r="H17">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I17">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="1"/>
-        <v>6.666666666666667</v>
+        <v>7.1428571428571432</v>
       </c>
       <c r="K17">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L17">
         <f t="shared" si="2"/>
-        <v>43.81780460041329</v>
+        <v>114.56439237389598</v>
       </c>
       <c r="M17">
         <f t="shared" si="3"/>
-        <v>43.81780460041329</v>
+        <v>116.18950038622249</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.5">
@@ -1425,7 +1470,7 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
         <v>41</v>
@@ -1434,35 +1479,35 @@
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F18">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="0"/>
-        <v>7.1428571428571432</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="H18">
-        <v>3.5</v>
+        <v>7.7</v>
       </c>
       <c r="I18">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="1"/>
-        <v>7.1428571428571432</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="K18">
-        <v>3.6</v>
+        <v>7.3</v>
       </c>
       <c r="L18">
         <f t="shared" si="2"/>
-        <v>45.825756949558397</v>
+        <v>169.92645467966429</v>
       </c>
       <c r="M18">
         <f t="shared" si="3"/>
-        <v>46.475800154489001</v>
+        <v>165.45392107774296</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.5">
@@ -1470,7 +1515,7 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
         <v>41</v>
@@ -1479,35 +1524,35 @@
         <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
-        <v>8.3333333333333339</v>
+        <v>7.1428571428571432</v>
       </c>
       <c r="H19">
-        <v>7.7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I19">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="1"/>
-        <v>8.3333333333333339</v>
+        <v>7.6923076923076925</v>
       </c>
       <c r="K19">
-        <v>7.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L19">
         <f t="shared" si="2"/>
-        <v>67.970581871865718</v>
+        <v>138.2931668593933</v>
       </c>
       <c r="M19">
         <f t="shared" si="3"/>
-        <v>66.18156843109719</v>
+        <v>128.4523257866513</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.5">
@@ -1515,7 +1560,7 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
@@ -1524,35 +1569,35 @@
         <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20">
+        <v>120</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
         <v>140</v>
       </c>
-      <c r="G20" s="3">
-        <f t="shared" si="0"/>
+      <c r="J20" s="3">
+        <f t="shared" si="1"/>
         <v>7.1428571428571432</v>
       </c>
-      <c r="H20">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I20">
-        <v>130</v>
-      </c>
-      <c r="J20" s="3">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076925</v>
-      </c>
       <c r="K20">
-        <v>4.4000000000000004</v>
+        <v>5.7</v>
       </c>
       <c r="L20">
         <f t="shared" si="2"/>
-        <v>55.317266743757315</v>
+        <v>136.93063937629154</v>
       </c>
       <c r="M20">
         <f t="shared" si="3"/>
-        <v>51.380930314660517</v>
+        <v>146.20191517213445</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.5">
@@ -1560,7 +1605,7 @@
         <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
         <v>41</v>
@@ -1569,35 +1614,35 @@
         <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F21">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="0"/>
-        <v>8.3333333333333339</v>
+        <v>5.882352941176471</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>11.9</v>
       </c>
       <c r="I21">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="1"/>
-        <v>7.1428571428571432</v>
+        <v>6.25</v>
       </c>
       <c r="K21">
-        <v>5.7</v>
+        <v>11.3</v>
       </c>
       <c r="L21">
         <f t="shared" si="2"/>
-        <v>54.772255750516614</v>
+        <v>211.24630174277607</v>
       </c>
       <c r="M21">
         <f t="shared" si="3"/>
-        <v>58.480766068853782</v>
+        <v>205.85188850238899</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.5">
@@ -1605,7 +1650,7 @@
         <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
@@ -1614,232 +1659,367 @@
         <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F22">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" si="0"/>
-        <v>5.882352941176471</v>
+        <v>4.7619047619047619</v>
       </c>
       <c r="H22">
-        <v>11.9</v>
+        <v>7.3</v>
       </c>
       <c r="I22">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="K22">
-        <v>11.3</v>
+        <v>6.3</v>
       </c>
       <c r="L22">
         <f t="shared" si="2"/>
-        <v>84.498520697110422</v>
+        <v>165.45392107774296</v>
       </c>
       <c r="M22">
         <f t="shared" si="3"/>
-        <v>82.340755400955601</v>
+        <v>153.70426148939396</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23">
+        <v>240</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="0"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="H23">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I23">
+        <v>240</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="1"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="K23">
+        <v>6.8</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>185.74175621006708</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>159.6871942267131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
         <v>41</v>
       </c>
-      <c r="D23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23">
-        <v>210</v>
-      </c>
-      <c r="G23" s="3">
-        <f t="shared" si="0"/>
-        <v>4.7619047619047619</v>
-      </c>
-      <c r="H23">
-        <v>7.3</v>
-      </c>
-      <c r="I23">
-        <v>180</v>
-      </c>
-      <c r="J23" s="3">
-        <f t="shared" si="1"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="K23">
-        <v>6.3</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="2"/>
-        <v>66.18156843109719</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="3"/>
-        <v>61.481704595757591</v>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24">
+        <v>140</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="H24">
+        <v>1.9</v>
+      </c>
+      <c r="I24">
+        <v>130</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" si="1"/>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="K24">
+        <v>1.9</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>84.409715080670651</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>84.409715080670651</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F25">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="0"/>
-        <v>4.166666666666667</v>
+        <v>9.0909090909090917</v>
       </c>
       <c r="H25">
-        <v>9.1999999999999993</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="1"/>
-        <v>4.166666666666667</v>
+        <v>9.0909090909090917</v>
       </c>
       <c r="K25">
-        <v>6.8</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <f t="shared" si="2"/>
-        <v>74.296702484026838</v>
+        <v>106.06601717798212</v>
       </c>
       <c r="M25">
         <f t="shared" si="3"/>
-        <v>63.874877690685246</v>
+        <v>106.06601717798212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26">
+        <v>130</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="0"/>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="H26">
+        <v>9.1</v>
+      </c>
+      <c r="I26">
+        <v>130</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" si="1"/>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="K26">
+        <v>9</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>184.72953201911164</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="3"/>
+        <v>183.71173070873834</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
         <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F27">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" si="0"/>
-        <v>7.1428571428571432</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="H27">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="I27">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" si="1"/>
-        <v>7.6923076923076925</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="K27">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <f t="shared" si="2"/>
-        <v>33.76388603226826</v>
+        <v>79.843597113356552</v>
       </c>
       <c r="M27">
         <f t="shared" si="3"/>
-        <v>33.76388603226826</v>
+        <v>86.602540378443862</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28">
+        <v>170</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="0"/>
+        <v>5.882352941176471</v>
+      </c>
+      <c r="H28">
+        <v>7.2</v>
+      </c>
+      <c r="I28">
+        <v>160</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
+      <c r="K28">
+        <v>6.6</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>164.31676725154983</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="3"/>
+        <v>157.32132722552271</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F29">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" si="0"/>
-        <v>9.0909090909090917</v>
+        <v>7.1428571428571432</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I29">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="1"/>
-        <v>9.0909090909090917</v>
+        <v>6.25</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L29">
         <f t="shared" si="2"/>
-        <v>42.426406871192846</v>
+        <v>90.829510622924744</v>
       </c>
       <c r="M29">
         <f t="shared" si="3"/>
-        <v>42.426406871192846</v>
+        <v>92.87087810503354</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E30" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F30">
         <v>130</v>
@@ -1849,52 +2029,52 @@
         <v>7.6923076923076925</v>
       </c>
       <c r="H30">
-        <v>9.1</v>
+        <v>2.6</v>
       </c>
       <c r="I30">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" si="1"/>
-        <v>7.6923076923076925</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="K30">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="L30">
         <f t="shared" si="2"/>
-        <v>73.891812807644669</v>
+        <v>98.742088290657492</v>
       </c>
       <c r="M30">
         <f t="shared" si="3"/>
-        <v>73.484692283495349</v>
+        <v>100.62305898749054</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
         <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F31">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="G31" s="3">
         <f t="shared" si="0"/>
-        <v>8.3333333333333339</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="H31">
-        <v>1.7</v>
+        <v>6.7</v>
       </c>
       <c r="I31">
         <v>150</v>
@@ -1904,404 +2084,224 @@
         <v>6.666666666666667</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>6.6</v>
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
-        <v>31.937438845342623</v>
+        <v>158.50867484147358</v>
       </c>
       <c r="M31">
         <f t="shared" si="3"/>
-        <v>34.641016151377549</v>
+        <v>157.32132722552271</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
         <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F32">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
-        <v>5.882352941176471</v>
+        <v>7.1428571428571432</v>
       </c>
       <c r="H32">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="I32">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>7.1428571428571432</v>
       </c>
       <c r="K32">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="L32">
         <f t="shared" si="2"/>
-        <v>65.726706900619931</v>
+        <v>163.1716887208072</v>
       </c>
       <c r="M32">
         <f t="shared" si="3"/>
-        <v>62.928530890209089</v>
+        <v>163.1716887208072</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33">
+        <v>130</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="0"/>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="H33">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I33">
+        <v>140</v>
+      </c>
+      <c r="J33" s="3">
+        <f t="shared" si="1"/>
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="K33">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>175.3567791675018</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="3"/>
+        <v>180.62391868188439</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F34">
+        <v>170</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="0"/>
+        <v>5.882352941176471</v>
+      </c>
+      <c r="H34">
+        <v>11.6</v>
+      </c>
+      <c r="I34">
         <v>140</v>
       </c>
-      <c r="G34" s="3">
-        <f t="shared" si="0"/>
+      <c r="J34" s="3">
+        <f t="shared" si="1"/>
         <v>7.1428571428571432</v>
       </c>
-      <c r="H34">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I34">
-        <v>160</v>
-      </c>
-      <c r="J34" s="3">
-        <f t="shared" si="1"/>
-        <v>6.25</v>
-      </c>
       <c r="K34">
-        <v>2.2999999999999998</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
-        <v>36.331804249169899</v>
+        <v>208.56653614614208</v>
       </c>
       <c r="M34">
         <f t="shared" si="3"/>
-        <v>37.148351242013419</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35">
-        <v>130</v>
-      </c>
-      <c r="G35" s="3">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="H35">
-        <v>2.6</v>
-      </c>
-      <c r="I35">
-        <v>150</v>
-      </c>
-      <c r="J35" s="3">
-        <f t="shared" si="1"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="K35">
-        <v>2.7</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="2"/>
-        <v>39.496835316263002</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="3"/>
-        <v>40.249223594996216</v>
+        <v>186.74849396983097</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="1">
+        <f>AVERAGE(F2:F34)</f>
+        <v>169.09090909090909</v>
+      </c>
+      <c r="G36" s="2">
+        <f>AVERAGE(G2:G34)</f>
+        <v>6.1938039242888765</v>
+      </c>
+      <c r="H36" s="1">
+        <f>AVERAGE(H2:H34)</f>
+        <v>6.7696969696969678</v>
+      </c>
+      <c r="I36" s="1">
+        <f>AVERAGE(I2:I34)</f>
+        <v>165.15151515151516</v>
+      </c>
+      <c r="J36" s="2">
+        <f>AVERAGE(J2:J34)</f>
+        <v>6.2542377434721912</v>
+      </c>
+      <c r="K36" s="1">
+        <f>AVERAGE(K2:K34)</f>
+        <v>6.372727272727273</v>
+      </c>
+      <c r="L36">
+        <f>AVERAGE(L2:L34)</f>
+        <v>155.40196123431679</v>
+      </c>
+      <c r="M36" s="1">
+        <f>AVERAGE(M2:M34)</f>
+        <v>151.44396651990016</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A37" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" t="s">
-        <v>74</v>
+      <c r="A37" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="F37">
-        <v>150</v>
+        <f>STDEV(F2:F34)</f>
+        <v>36.17350863923388</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="0"/>
-        <v>6.666666666666667</v>
+        <f>STDEV(G2:G34)</f>
+        <v>1.3716238014333066</v>
       </c>
       <c r="H37">
-        <v>6.7</v>
+        <f>STDEV(H2:H34)</f>
+        <v>2.7559577337657126</v>
       </c>
       <c r="I37">
-        <v>150</v>
+        <f>STDEV(I2:I34)</f>
+        <v>30.220151815594441</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="1"/>
-        <v>6.666666666666667</v>
+        <f>STDEV(J2:J34)</f>
+        <v>1.1472942079693016</v>
       </c>
       <c r="K37">
-        <v>6.6</v>
+        <f>STDEV(K2:K34)</f>
+        <v>2.3626352775122634</v>
       </c>
       <c r="L37">
-        <f t="shared" si="2"/>
-        <v>63.403469936589431</v>
+        <f>STDEV(L2:L34)</f>
+        <v>35.710469696146411</v>
       </c>
       <c r="M37">
-        <f t="shared" si="3"/>
-        <v>62.928530890209089</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A38" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" t="s">
-        <v>75</v>
-      </c>
-      <c r="F38">
-        <v>140</v>
-      </c>
-      <c r="G38" s="3">
-        <f t="shared" si="0"/>
-        <v>7.1428571428571432</v>
-      </c>
-      <c r="H38">
-        <v>7.1</v>
-      </c>
-      <c r="I38">
-        <v>140</v>
-      </c>
-      <c r="J38" s="3">
-        <f t="shared" si="1"/>
-        <v>7.1428571428571432</v>
-      </c>
-      <c r="K38">
-        <v>7.1</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="2"/>
-        <v>65.268675488322884</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="3"/>
-        <v>65.268675488322884</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A39" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" t="s">
-        <v>76</v>
-      </c>
-      <c r="F39">
-        <v>130</v>
-      </c>
-      <c r="G39" s="3">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="H39">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="I39">
-        <v>140</v>
-      </c>
-      <c r="J39" s="3">
-        <f t="shared" si="1"/>
-        <v>7.1428571428571432</v>
-      </c>
-      <c r="K39">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="2"/>
-        <v>70.142711667000725</v>
-      </c>
-      <c r="M39">
-        <f t="shared" si="3"/>
-        <v>72.249567472753768</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A40" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" t="s">
-        <v>77</v>
-      </c>
-      <c r="F40">
-        <v>170</v>
-      </c>
-      <c r="G40" s="3">
-        <f t="shared" si="0"/>
-        <v>5.882352941176471</v>
-      </c>
-      <c r="H40">
-        <v>11.6</v>
-      </c>
-      <c r="I40">
-        <v>140</v>
-      </c>
-      <c r="J40" s="3">
-        <f t="shared" si="1"/>
-        <v>7.1428571428571432</v>
-      </c>
-      <c r="K40">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="2"/>
-        <v>83.426614458456839</v>
-      </c>
-      <c r="M40">
-        <f t="shared" si="3"/>
-        <v>74.699397587932395</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F42" s="1">
-        <f>AVERAGE(F2:F40)</f>
-        <v>169.09090909090909</v>
-      </c>
-      <c r="G42" s="2">
-        <f>AVERAGE(G2:G40)</f>
-        <v>6.1938039242888765</v>
-      </c>
-      <c r="H42" s="1">
-        <f>AVERAGE(H2:H40)</f>
-        <v>6.7696969696969678</v>
-      </c>
-      <c r="I42" s="1">
-        <f>AVERAGE(I2:I40)</f>
-        <v>165.15151515151516</v>
-      </c>
-      <c r="J42" s="2">
-        <f>AVERAGE(J2:J40)</f>
-        <v>6.2542377434721912</v>
-      </c>
-      <c r="K42" s="1">
-        <f>AVERAGE(K2:K40)</f>
-        <v>6.372727272727273</v>
-      </c>
-      <c r="L42" s="1">
-        <f>AVERAGE(L2:L40)</f>
-        <v>62.160784493726723</v>
-      </c>
-      <c r="M42" s="1">
-        <f>AVERAGE(M2:M40)</f>
-        <v>60.577586607960072</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A43" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F43">
-        <f>STDEV(F2:F40)</f>
-        <v>36.17350863923388</v>
-      </c>
-      <c r="G43" s="3">
-        <f>STDEV(G2:G40)</f>
-        <v>1.3716238014333066</v>
-      </c>
-      <c r="H43">
-        <f>STDEV(H2:H40)</f>
-        <v>2.7559577337657126</v>
-      </c>
-      <c r="I43">
-        <f>STDEV(I2:I40)</f>
-        <v>30.220151815594441</v>
-      </c>
-      <c r="J43" s="3">
-        <f>STDEV(J2:J40)</f>
-        <v>1.1472942079693016</v>
-      </c>
-      <c r="K43">
-        <f>STDEV(K2:K40)</f>
-        <v>2.3626352775122634</v>
-      </c>
-      <c r="L43">
-        <f>STDEV(L2:L40)</f>
-        <v>14.284187878458573</v>
-      </c>
-      <c r="M43">
-        <f>STDEV(M2:M40)</f>
-        <v>12.601770739808499</v>
+        <f>STDEV(M2:M34)</f>
+        <v>31.504426849521298</v>
       </c>
     </row>
   </sheetData>
